--- a/2-Empirical-Evidence/raw_data/Colorado.xlsx
+++ b/2-Empirical-Evidence/raw_data/Colorado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN080010000000003</t>
@@ -1306,10 +1322,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.7</v>
@@ -1404,10 +1432,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>8038.0</v>
@@ -1502,10 +1540,20 @@
       <c r="AF6" t="n" s="8">
         <v>20249.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>17348.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>9569.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>9720.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>133093.0</v>
@@ -1600,10 +1648,20 @@
       <c r="AF7" t="n" s="8">
         <v>249638.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>260499.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>271745.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>274865.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>141131.0</v>
@@ -1698,10 +1756,20 @@
       <c r="AF8" t="n" s="8">
         <v>269887.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>277847.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>281314.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>284585.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>7.2</v>
@@ -1796,10 +1864,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>486.0</v>
@@ -1894,10 +1972,20 @@
       <c r="AF10" t="n" s="8">
         <v>491.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>482.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>6276.0</v>
@@ -1992,10 +2080,20 @@
       <c r="AF11" t="n" s="8">
         <v>7806.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>7593.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>7801.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>7649.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>6762.0</v>
@@ -2090,10 +2188,20 @@
       <c r="AF12" t="n" s="8">
         <v>8297.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>8075.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>8101.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>7945.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.7</v>
@@ -2188,10 +2296,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>8451.0</v>
@@ -2286,10 +2404,20 @@
       <c r="AF14" t="n" s="8">
         <v>26393.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>21483.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>11661.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>11780.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>217486.0</v>
@@ -2384,10 +2512,20 @@
       <c r="AF15" t="n" s="8">
         <v>333007.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>347843.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>362728.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>366811.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>225937.0</v>
@@ -2482,10 +2620,20 @@
       <c r="AF16" t="n" s="8">
         <v>359400.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>369326.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>374389.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>378591.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>5.1</v>
@@ -2580,10 +2728,20 @@
       <c r="AF17" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>136.0</v>
@@ -2678,10 +2836,20 @@
       <c r="AF18" t="n" s="8">
         <v>494.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>221.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>221.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>2555.0</v>
@@ -2776,10 +2944,20 @@
       <c r="AF19" t="n" s="8">
         <v>6534.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>6554.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>6659.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>6599.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>2691.0</v>
@@ -2874,10 +3052,20 @@
       <c r="AF20" t="n" s="8">
         <v>7028.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>6919.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>6880.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>6820.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>1.9</v>
@@ -2972,10 +3160,20 @@
       <c r="AF21" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>38.0</v>
@@ -3070,10 +3268,20 @@
       <c r="AF22" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>1996.0</v>
@@ -3168,10 +3376,20 @@
       <c r="AF23" t="n" s="8">
         <v>2035.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>1986.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>1997.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>2034.0</v>
@@ -3266,10 +3484,20 @@
       <c r="AF24" t="n" s="8">
         <v>2081.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>2033.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>2047.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>2038.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>3.4</v>
@@ -3364,10 +3592,20 @@
       <c r="AF25" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>70.0</v>
@@ -3462,10 +3700,20 @@
       <c r="AF26" t="n" s="8">
         <v>71.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>2013.0</v>
@@ -3560,10 +3808,20 @@
       <c r="AF27" t="n" s="8">
         <v>1715.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>1651.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>1692.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>1732.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>2083.0</v>
@@ -3658,10 +3916,20 @@
       <c r="AF28" t="n" s="8">
         <v>1786.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>1768.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>1755.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>1786.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>4.8</v>
@@ -3756,10 +4024,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>6026.0</v>
@@ -3854,10 +4132,20 @@
       <c r="AF30" t="n" s="8">
         <v>10929.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>8735.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>5127.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>5770.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>118832.0</v>
@@ -3952,10 +4240,20 @@
       <c r="AF31" t="n" s="8">
         <v>179548.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>188538.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>195221.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>196908.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>124858.0</v>
@@ -4050,10 +4348,20 @@
       <c r="AF32" t="n" s="8">
         <v>190477.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>197273.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>200348.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>202678.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>3.6</v>
@@ -4148,10 +4456,20 @@
       <c r="AF33" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>517.0</v>
@@ -4246,10 +4564,20 @@
       <c r="AF34" t="n" s="8">
         <v>2454.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1895.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>1115.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>1303.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>13778.0</v>
@@ -4344,10 +4672,20 @@
       <c r="AF35" t="n" s="8">
         <v>37893.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>39535.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>41261.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>41759.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>14295.0</v>
@@ -4442,10 +4780,20 @@
       <c r="AF36" t="n" s="8">
         <v>40347.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>41430.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>42376.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>43062.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.8</v>
@@ -4540,10 +4888,20 @@
       <c r="AF37" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>396.0</v>
@@ -4638,10 +4996,20 @@
       <c r="AF38" t="n" s="8">
         <v>569.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>426.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>268.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>301.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>5464.0</v>
@@ -4736,10 +5104,20 @@
       <c r="AF39" t="n" s="8">
         <v>9058.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>9218.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>9457.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>9708.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>5860.0</v>
@@ -4834,10 +5212,20 @@
       <c r="AF40" t="n" s="8">
         <v>9627.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>9644.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>9725.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>10009.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>1.3</v>
@@ -4932,10 +5320,20 @@
       <c r="AF41" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>15.0</v>
@@ -5030,10 +5428,20 @@
       <c r="AF42" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>1169.0</v>
@@ -5128,10 +5536,20 @@
       <c r="AF43" t="n" s="8">
         <v>1058.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>1033.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>1023.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>1016.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>1184.0</v>
@@ -5226,10 +5644,20 @@
       <c r="AF44" t="n" s="8">
         <v>1082.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>1059.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>1043.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>1038.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>3.9</v>
@@ -5324,10 +5752,20 @@
       <c r="AF45" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>175.0</v>
@@ -5422,10 +5860,20 @@
       <c r="AF46" t="n" s="8">
         <v>481.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>338.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>4281.0</v>
@@ -5520,10 +5968,20 @@
       <c r="AF47" t="n" s="8">
         <v>5473.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>5720.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>5961.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>6024.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>4456.0</v>
@@ -5618,10 +6076,20 @@
       <c r="AF48" t="n" s="8">
         <v>5954.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>6058.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>6143.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>6197.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>11.8</v>
@@ -5716,10 +6184,20 @@
       <c r="AF49" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>368.0</v>
@@ -5814,10 +6292,20 @@
       <c r="AF50" t="n" s="8">
         <v>209.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>201.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>2761.0</v>
@@ -5912,10 +6400,20 @@
       <c r="AF51" t="n" s="8">
         <v>3788.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>3702.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>3802.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>3726.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>3129.0</v>
@@ -6010,10 +6508,20 @@
       <c r="AF52" t="n" s="8">
         <v>3997.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>3903.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>3931.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>3854.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>10.5</v>
@@ -6108,10 +6616,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>149.0</v>
@@ -6206,10 +6724,20 @@
       <c r="AF54" t="n" s="8">
         <v>122.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>1264.0</v>
@@ -6304,10 +6832,20 @@
       <c r="AF55" t="n" s="8">
         <v>1687.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>1678.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>1694.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>1722.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>1413.0</v>
@@ -6402,10 +6940,20 @@
       <c r="AF56" t="n" s="8">
         <v>1809.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>1793.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>1768.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>1802.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>3.9</v>
@@ -6500,10 +7048,20 @@
       <c r="AF57" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>45.0</v>
@@ -6598,10 +7156,20 @@
       <c r="AF58" t="n" s="8">
         <v>74.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>1100.0</v>
@@ -6696,10 +7264,20 @@
       <c r="AF59" t="n" s="8">
         <v>1364.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>1306.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>1304.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>1291.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>1145.0</v>
@@ -6794,10 +7372,20 @@
       <c r="AF60" t="n" s="8">
         <v>1438.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>1384.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>1356.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>1348.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>4.5</v>
@@ -6892,10 +7480,20 @@
       <c r="AF61" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>40.0</v>
@@ -6990,10 +7588,20 @@
       <c r="AF62" t="n" s="8">
         <v>97.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>856.0</v>
@@ -7088,10 +7696,20 @@
       <c r="AF63" t="n" s="8">
         <v>1985.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>2130.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>2211.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>2128.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>896.0</v>
@@ -7186,10 +7804,20 @@
       <c r="AF64" t="n" s="8">
         <v>2082.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>2226.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>2280.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>2198.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>7.0</v>
@@ -7284,10 +7912,20 @@
       <c r="AF65" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>596.0</v>
@@ -7382,10 +8020,20 @@
       <c r="AF66" t="n" s="8">
         <v>865.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>780.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>483.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>493.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>7971.0</v>
@@ -7480,10 +8128,20 @@
       <c r="AF67" t="n" s="8">
         <v>13267.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>12854.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>12828.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>13112.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>8567.0</v>
@@ -7578,10 +8236,20 @@
       <c r="AF68" t="n" s="8">
         <v>14132.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>13634.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>13311.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>13605.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>5.5</v>
@@ -7676,10 +8344,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>14024.0</v>
@@ -7774,10 +8452,20 @@
       <c r="AF70" t="n" s="8">
         <v>32030.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>25454.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>13602.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>14777.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>239198.0</v>
@@ -7872,10 +8560,20 @@
       <c r="AF71" t="n" s="8">
         <v>387125.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>404326.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>421655.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>426428.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>253222.0</v>
@@ -7970,10 +8668,20 @@
       <c r="AF72" t="n" s="8">
         <v>419155.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>429780.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>435257.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>441205.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>4.8</v>
@@ -8068,10 +8776,20 @@
       <c r="AF73" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>32.0</v>
@@ -8166,10 +8884,20 @@
       <c r="AF74" t="n" s="8">
         <v>72.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>640.0</v>
@@ -8264,10 +8992,20 @@
       <c r="AF75" t="n" s="8">
         <v>1061.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>1062.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>1102.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>1074.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>672.0</v>
@@ -8362,10 +9100,20 @@
       <c r="AF76" t="n" s="8">
         <v>1133.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>1118.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>1136.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>1106.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>3.1</v>
@@ -8460,10 +9208,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1103.0</v>
@@ -8558,10 +9316,20 @@
       <c r="AF78" t="n" s="8">
         <v>10386.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>8419.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>5247.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>6077.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>34461.0</v>
@@ -8656,10 +9424,20 @@
       <c r="AF79" t="n" s="8">
         <v>185433.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>193618.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>201951.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>204268.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>35564.0</v>
@@ -8754,10 +9532,20 @@
       <c r="AF80" t="n" s="8">
         <v>195819.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>202037.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>207198.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>210345.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>3.6</v>
@@ -8852,10 +9640,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>448.0</v>
@@ -8950,10 +9748,20 @@
       <c r="AF82" t="n" s="8">
         <v>3130.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>1667.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>918.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>916.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>12131.0</v>
@@ -9048,10 +9856,20 @@
       <c r="AF83" t="n" s="8">
         <v>32191.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>32848.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>33739.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>34007.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>12579.0</v>
@@ -9146,10 +9964,20 @@
       <c r="AF84" t="n" s="8">
         <v>35321.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>34515.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>34657.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>34923.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>4.0</v>
@@ -9244,10 +10072,20 @@
       <c r="AF85" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>220.0</v>
@@ -9342,10 +10180,20 @@
       <c r="AF86" t="n" s="8">
         <v>645.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>606.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>391.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>426.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>5313.0</v>
@@ -9440,10 +10288,20 @@
       <c r="AF87" t="n" s="8">
         <v>14334.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>14960.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>15567.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>15693.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>5533.0</v>
@@ -9538,10 +10396,20 @@
       <c r="AF88" t="n" s="8">
         <v>14979.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>15566.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>15958.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>16119.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>7.1</v>
@@ -9636,10 +10504,20 @@
       <c r="AF89" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>13527.0</v>
@@ -9734,10 +10612,20 @@
       <c r="AF90" t="n" s="8">
         <v>23040.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>20194.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>11773.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>12189.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>178161.0</v>
@@ -9832,10 +10720,20 @@
       <c r="AF91" t="n" s="8">
         <v>318334.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>333220.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>345539.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>352979.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>191688.0</v>
@@ -9930,10 +10828,20 @@
       <c r="AF92" t="n" s="8">
         <v>341374.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>353414.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>357312.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>365168.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>6.4</v>
@@ -10028,10 +10936,20 @@
       <c r="AF93" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>831.0</v>
@@ -10126,10 +11044,20 @@
       <c r="AF94" t="n" s="8">
         <v>1093.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>1115.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>683.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>696.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>12153.0</v>
@@ -10224,10 +11152,20 @@
       <c r="AF95" t="n" s="8">
         <v>14099.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>13763.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>13609.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>13629.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>12984.0</v>
@@ -10322,10 +11260,20 @@
       <c r="AF96" t="n" s="8">
         <v>15192.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>14878.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>14292.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>14325.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>4.1</v>
@@ -10420,10 +11368,20 @@
       <c r="AF97" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>682.0</v>
@@ -10518,10 +11476,20 @@
       <c r="AF98" t="n" s="8">
         <v>1983.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>1548.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>935.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>916.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>16101.0</v>
@@ -10616,10 +11584,20 @@
       <c r="AF99" t="n" s="8">
         <v>29365.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>28830.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>29835.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>30539.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>16783.0</v>
@@ -10714,10 +11692,20 @@
       <c r="AF100" t="n" s="8">
         <v>31348.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>30378.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>30770.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>31455.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>2.4</v>
@@ -10812,10 +11800,20 @@
       <c r="AF101" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>58.0</v>
@@ -10910,10 +11908,20 @@
       <c r="AF102" t="n" s="8">
         <v>423.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>238.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>2344.0</v>
@@ -11008,10 +12016,20 @@
       <c r="AF103" t="n" s="8">
         <v>3500.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>3661.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>3813.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>3852.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>2402.0</v>
@@ -11106,10 +12124,20 @@
       <c r="AF104" t="n" s="8">
         <v>3923.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>3899.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>3922.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>3958.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>3.1</v>
@@ -11204,10 +12232,20 @@
       <c r="AF105" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>133.0</v>
@@ -11302,10 +12340,20 @@
       <c r="AF106" t="n" s="8">
         <v>726.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>418.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>251.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>256.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>4205.0</v>
@@ -11400,10 +12448,20 @@
       <c r="AF107" t="n" s="8">
         <v>8502.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>8716.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>8991.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>9121.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>4338.0</v>
@@ -11498,10 +12556,20 @@
       <c r="AF108" t="n" s="8">
         <v>9228.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>9134.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>9242.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>9377.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>7.3</v>
@@ -11596,10 +12664,20 @@
       <c r="AF109" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>439.0</v>
@@ -11694,10 +12772,20 @@
       <c r="AF110" t="n" s="8">
         <v>695.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>449.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>285.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>298.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>5592.0</v>
@@ -11792,10 +12880,20 @@
       <c r="AF111" t="n" s="8">
         <v>10582.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>10728.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>11031.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>11121.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>6031.0</v>
@@ -11890,10 +12988,20 @@
       <c r="AF112" t="n" s="8">
         <v>11277.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>11177.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>11316.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>11419.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>2.2</v>
@@ -11988,10 +13096,20 @@
       <c r="AF113" t="n" s="10">
         <v>3.8</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>9.0</v>
@@ -12086,10 +13204,20 @@
       <c r="AF114" t="n" s="8">
         <v>16.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>396.0</v>
@@ -12184,10 +13312,20 @@
       <c r="AF115" t="n" s="8">
         <v>406.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>406.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>413.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>397.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>405.0</v>
@@ -12282,10 +13420,20 @@
       <c r="AF116" t="n" s="8">
         <v>422.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>422.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>424.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>409.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>7.9</v>
@@ -12380,10 +13528,20 @@
       <c r="AF117" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>202.0</v>
@@ -12478,10 +13636,20 @@
       <c r="AF118" t="n" s="8">
         <v>229.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>2339.0</v>
@@ -12576,10 +13744,20 @@
       <c r="AF119" t="n" s="8">
         <v>2362.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>2324.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>2294.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>2318.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>2541.0</v>
@@ -12674,10 +13852,20 @@
       <c r="AF120" t="n" s="8">
         <v>2591.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>2543.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>2445.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>2462.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>2.8</v>
@@ -12772,10 +13960,20 @@
       <c r="AF121" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>25.0</v>
@@ -12870,10 +14068,20 @@
       <c r="AF122" t="n" s="8">
         <v>36.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>865.0</v>
@@ -12968,10 +14176,20 @@
       <c r="AF123" t="n" s="8">
         <v>897.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>915.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>935.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>908.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>890.0</v>
@@ -13066,10 +14284,20 @@
       <c r="AF124" t="n" s="8">
         <v>933.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>949.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>956.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>928.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>3.8</v>
@@ -13164,10 +14392,20 @@
       <c r="AF125" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>9749.0</v>
@@ -13262,10 +14500,20 @@
       <c r="AF126" t="n" s="8">
         <v>21713.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>17106.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>9626.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>10213.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>246846.0</v>
@@ -13360,10 +14608,20 @@
       <c r="AF127" t="n" s="8">
         <v>305322.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>319017.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>332572.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>336212.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>256595.0</v>
@@ -13458,10 +14716,20 @@
       <c r="AF128" t="n" s="8">
         <v>327035.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>336123.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>342198.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>346425.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>2.6</v>
@@ -13556,10 +14824,20 @@
       <c r="AF129" t="n" s="10">
         <v>2.2</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>21.0</v>
@@ -13654,10 +14932,20 @@
       <c r="AF130" t="n" s="8">
         <v>21.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>781.0</v>
@@ -13752,10 +15040,20 @@
       <c r="AF131" t="n" s="8">
         <v>931.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>891.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>868.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>849.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>802.0</v>
@@ -13850,10 +15148,20 @@
       <c r="AF132" t="n" s="8">
         <v>952.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>923.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>885.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>868.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>1.2</v>
@@ -13948,10 +15256,20 @@
       <c r="AF133" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>40.0</v>
@@ -14046,10 +15364,20 @@
       <c r="AF134" t="n" s="8">
         <v>110.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>3296.0</v>
@@ -14144,10 +15472,20 @@
       <c r="AF135" t="n" s="8">
         <v>4096.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>3932.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>4006.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>4049.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>3336.0</v>
@@ -14242,10 +15580,20 @@
       <c r="AF136" t="n" s="8">
         <v>4206.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>4062.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>4087.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>4125.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>6.1</v>
@@ -14340,10 +15688,20 @@
       <c r="AF137" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>173.0</v>
@@ -14438,10 +15796,20 @@
       <c r="AF138" t="n" s="8">
         <v>363.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>223.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>2666.0</v>
@@ -14536,10 +15904,20 @@
       <c r="AF139" t="n" s="8">
         <v>4432.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>4432.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>4646.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>4813.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>2839.0</v>
@@ -14634,10 +16012,20 @@
       <c r="AF140" t="n" s="8">
         <v>4795.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>4655.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>4772.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>4937.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>5.9</v>
@@ -14732,10 +16120,20 @@
       <c r="AF141" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>1022.0</v>
@@ -14830,10 +16228,20 @@
       <c r="AF142" t="n" s="8">
         <v>1984.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>1683.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>932.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>913.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>16445.0</v>
@@ -14928,10 +16336,20 @@
       <c r="AF143" t="n" s="8">
         <v>28885.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>28617.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>29602.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>29976.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>17467.0</v>
@@ -15026,10 +16444,20 @@
       <c r="AF144" t="n" s="8">
         <v>30869.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>30300.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>30534.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>30889.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>4.9</v>
@@ -15124,10 +16552,20 @@
       <c r="AF145" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>5064.0</v>
@@ -15222,10 +16660,20 @@
       <c r="AF146" t="n" s="8">
         <v>11824.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>9852.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>5767.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>6063.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>99240.0</v>
@@ -15320,10 +16768,20 @@
       <c r="AF147" t="n" s="8">
         <v>189141.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>197282.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>204240.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>208186.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>104304.0</v>
@@ -15418,10 +16876,20 @@
       <c r="AF148" t="n" s="8">
         <v>200965.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>207134.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>210007.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>214249.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>8.2</v>
@@ -15516,10 +16984,20 @@
       <c r="AF149" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>451.0</v>
@@ -15614,10 +17092,20 @@
       <c r="AF150" t="n" s="8">
         <v>441.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>434.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>285.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>5077.0</v>
@@ -15712,10 +17200,20 @@
       <c r="AF151" t="n" s="8">
         <v>5945.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>5745.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>5787.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>5638.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>5528.0</v>
@@ -15810,10 +17308,20 @@
       <c r="AF152" t="n" s="8">
         <v>6386.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>6179.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>6072.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>5934.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>2.7</v>
@@ -15908,10 +17416,20 @@
       <c r="AF153" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>59.0</v>
@@ -16006,10 +17524,20 @@
       <c r="AF154" t="n" s="8">
         <v>97.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>2163.0</v>
@@ -16104,10 +17632,20 @@
       <c r="AF155" t="n" s="8">
         <v>2240.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>2134.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>2134.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>2168.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>2222.0</v>
@@ -16202,10 +17740,20 @@
       <c r="AF156" t="n" s="8">
         <v>2337.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>2236.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>2197.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>2231.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>3.5</v>
@@ -16300,10 +17848,20 @@
       <c r="AF157" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>305.0</v>
@@ -16398,10 +17956,20 @@
       <c r="AF158" t="n" s="8">
         <v>472.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>492.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>284.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>273.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>8501.0</v>
@@ -16496,10 +18064,20 @@
       <c r="AF159" t="n" s="8">
         <v>10381.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>9851.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>9821.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>9770.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>8806.0</v>
@@ -16594,10 +18172,20 @@
       <c r="AF160" t="n" s="8">
         <v>10853.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>10343.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>10105.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>10043.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>5.9</v>
@@ -16692,10 +18280,20 @@
       <c r="AF161" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>2661.0</v>
@@ -16790,10 +18388,20 @@
       <c r="AF162" t="n" s="8">
         <v>5184.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>4497.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>2632.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>2659.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>42237.0</v>
@@ -16888,10 +18496,20 @@
       <c r="AF163" t="n" s="8">
         <v>69397.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>72302.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>73644.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>73894.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>44898.0</v>
@@ -16986,10 +18604,20 @@
       <c r="AF164" t="n" s="8">
         <v>74581.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>76799.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>76276.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>76553.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>6.7</v>
@@ -17084,10 +18712,20 @@
       <c r="AF165" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>20.0</v>
@@ -17182,10 +18820,20 @@
       <c r="AF166" t="n" s="8">
         <v>25.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>280.0</v>
@@ -17280,10 +18928,20 @@
       <c r="AF167" t="n" s="8">
         <v>438.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>418.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>441.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>300.0</v>
@@ -17378,10 +19036,20 @@
       <c r="AF168" t="n" s="8">
         <v>463.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>442.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>454.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>479.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>5.6</v>
@@ -17476,10 +19144,20 @@
       <c r="AF169" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>335.0</v>
@@ -17574,10 +19252,20 @@
       <c r="AF170" t="n" s="8">
         <v>401.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>356.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>218.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>224.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>5619.0</v>
@@ -17672,10 +19360,20 @@
       <c r="AF171" t="n" s="8">
         <v>6746.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>6520.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>6584.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>6685.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>5954.0</v>
@@ -17770,10 +19468,20 @@
       <c r="AF172" t="n" s="8">
         <v>7147.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>6876.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>6802.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>6909.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>7.3</v>
@@ -17868,10 +19576,20 @@
       <c r="AF173" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>675.0</v>
@@ -17966,10 +19684,20 @@
       <c r="AF174" t="n" s="8">
         <v>841.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>749.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>476.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>8599.0</v>
@@ -18064,10 +19792,20 @@
       <c r="AF175" t="n" s="8">
         <v>11755.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>11696.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>11746.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>11534.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>9274.0</v>
@@ -18162,10 +19900,20 @@
       <c r="AF176" t="n" s="8">
         <v>12596.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>12445.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>12213.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>12010.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>6.3</v>
@@ -18260,10 +20008,20 @@
       <c r="AF177" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>736.0</v>
@@ -18358,10 +20116,20 @@
       <c r="AF178" t="n" s="8">
         <v>1321.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>1152.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>718.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>698.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>10974.0</v>
@@ -18456,10 +20224,20 @@
       <c r="AF179" t="n" s="8">
         <v>20125.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>19976.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>20399.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>20641.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>11710.0</v>
@@ -18554,10 +20332,20 @@
       <c r="AF180" t="n" s="8">
         <v>21446.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>21128.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>21117.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>21339.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>4.5</v>
@@ -18652,10 +20440,20 @@
       <c r="AF181" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>462.0</v>
@@ -18750,10 +20548,20 @@
       <c r="AF182" t="n" s="8">
         <v>795.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>814.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>502.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>464.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>9897.0</v>
@@ -18848,10 +20656,20 @@
       <c r="AF183" t="n" s="8">
         <v>15083.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>14586.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>14864.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>14917.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>10359.0</v>
@@ -18946,10 +20764,20 @@
       <c r="AF184" t="n" s="8">
         <v>15878.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>15400.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>15366.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>15381.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>7.1</v>
@@ -19044,10 +20872,20 @@
       <c r="AF185" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>601.0</v>
@@ -19142,10 +20980,20 @@
       <c r="AF186" t="n" s="8">
         <v>467.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>329.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>318.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>7899.0</v>
@@ -19240,10 +21088,20 @@
       <c r="AF187" t="n" s="8">
         <v>7698.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>7435.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>7437.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>7346.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>8500.0</v>
@@ -19338,10 +21196,20 @@
       <c r="AF188" t="n" s="8">
         <v>8165.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>7959.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>7766.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>7664.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>9.7</v>
@@ -19436,10 +21304,20 @@
       <c r="AF189" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>120.0</v>
@@ -19534,10 +21412,20 @@
       <c r="AF190" t="n" s="8">
         <v>186.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>1118.0</v>
@@ -19632,10 +21520,20 @@
       <c r="AF191" t="n" s="8">
         <v>2289.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>2430.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>2398.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>2377.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>1238.0</v>
@@ -19730,10 +21628,20 @@
       <c r="AF192" t="n" s="8">
         <v>2475.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>2556.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>2476.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>2455.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>3.8</v>
@@ -19828,10 +21736,20 @@
       <c r="AF193" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>171.0</v>
@@ -19926,10 +21844,20 @@
       <c r="AF194" t="n" s="8">
         <v>588.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>477.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>302.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>328.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>4379.0</v>
@@ -20024,10 +21952,20 @@
       <c r="AF195" t="n" s="8">
         <v>10366.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>10867.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>11293.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>11378.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>4550.0</v>
@@ -20122,10 +22060,20 @@
       <c r="AF196" t="n" s="8">
         <v>10954.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>11344.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>11595.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>11706.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>1.5</v>
@@ -20220,10 +22168,20 @@
       <c r="AF197" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>27.0</v>
@@ -20318,10 +22276,20 @@
       <c r="AF198" t="n" s="8">
         <v>62.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>1818.0</v>
@@ -20416,10 +22384,20 @@
       <c r="AF199" t="n" s="8">
         <v>2395.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>2324.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>2366.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>2352.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>1845.0</v>
@@ -20514,10 +22492,20 @@
       <c r="AF200" t="n" s="8">
         <v>2457.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>2398.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>2417.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>2404.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>5.3</v>
@@ -20612,10 +22600,20 @@
       <c r="AF201" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>433.0</v>
@@ -20710,10 +22708,20 @@
       <c r="AF202" t="n" s="8">
         <v>1088.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>627.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>353.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>7730.0</v>
@@ -20808,10 +22816,20 @@
       <c r="AF203" t="n" s="8">
         <v>10013.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>9871.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>10200.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>10426.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>8163.0</v>
@@ -20906,10 +22924,20 @@
       <c r="AF204" t="n" s="8">
         <v>11101.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>10498.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>10553.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>10785.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>5.4</v>
@@ -21004,10 +23032,20 @@
       <c r="AF205" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>337.0</v>
@@ -21102,10 +23140,20 @@
       <c r="AF206" t="n" s="8">
         <v>253.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>292.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>5847.0</v>
@@ -21200,10 +23248,20 @@
       <c r="AF207" t="n" s="8">
         <v>5854.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>5689.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>5893.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>5978.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>6184.0</v>
@@ -21298,10 +23356,20 @@
       <c r="AF208" t="n" s="8">
         <v>6107.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>5981.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>6068.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>6150.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>7.2</v>
@@ -21396,10 +23464,20 @@
       <c r="AF209" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>3776.0</v>
@@ -21494,10 +23572,20 @@
       <c r="AF210" t="n" s="8">
         <v>5803.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>6180.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>3411.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>3353.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>48801.0</v>
@@ -21592,10 +23680,20 @@
       <c r="AF211" t="n" s="8">
         <v>70203.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>70974.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>72567.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>72379.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>52577.0</v>
@@ -21690,10 +23788,20 @@
       <c r="AF212" t="n" s="8">
         <v>76006.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>77154.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>75978.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>75732.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>4.2</v>
@@ -21788,10 +23896,20 @@
       <c r="AF213" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>134.0</v>
@@ -21886,10 +24004,20 @@
       <c r="AF214" t="n" s="8">
         <v>147.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>167.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>3055.0</v>
@@ -21984,10 +24112,20 @@
       <c r="AF215" t="n" s="8">
         <v>2753.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>2627.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>2684.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>2647.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>3189.0</v>
@@ -22082,10 +24220,20 @@
       <c r="AF216" t="n" s="8">
         <v>2900.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>2794.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>2791.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>2737.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>9.9</v>
@@ -22180,10 +24328,20 @@
       <c r="AF217" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>499.0</v>
@@ -22278,10 +24436,20 @@
       <c r="AF218" t="n" s="8">
         <v>357.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>367.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>226.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>207.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>4542.0</v>
@@ -22376,10 +24544,20 @@
       <c r="AF219" t="n" s="8">
         <v>4991.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>4922.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>5025.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>5002.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>5041.0</v>
@@ -22474,10 +24652,20 @@
       <c r="AF220" t="n" s="8">
         <v>5348.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>5289.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>5251.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>5209.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>4.2</v>
@@ -22572,10 +24760,20 @@
       <c r="AF221" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>347.0</v>
@@ -22670,10 +24868,20 @@
       <c r="AF222" t="n" s="8">
         <v>1173.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>698.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>399.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>410.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>7935.0</v>
@@ -22768,10 +24976,20 @@
       <c r="AF223" t="n" s="8">
         <v>14723.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>14494.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>15144.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>15688.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>8282.0</v>
@@ -22866,10 +25084,20 @@
       <c r="AF224" t="n" s="8">
         <v>15896.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>15192.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>15543.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>16098.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>11.9</v>
@@ -22964,10 +25192,20 @@
       <c r="AF225" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>269.0</v>
@@ -23062,10 +25300,20 @@
       <c r="AF226" t="n" s="8">
         <v>224.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>209.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>1996.0</v>
@@ -23160,10 +25408,20 @@
       <c r="AF227" t="n" s="8">
         <v>3175.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>3134.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>3217.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>3250.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>2265.0</v>
@@ -23258,10 +25516,20 @@
       <c r="AF228" t="n" s="8">
         <v>3399.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>3343.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>3333.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>3369.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>7.9</v>
@@ -23356,10 +25624,20 @@
       <c r="AF229" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>37.0</v>
@@ -23454,10 +25732,20 @@
       <c r="AF230" t="n" s="8">
         <v>32.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>431.0</v>
@@ -23552,10 +25840,20 @@
       <c r="AF231" t="n" s="8">
         <v>486.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>564.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>468.0</v>
@@ -23650,10 +25948,20 @@
       <c r="AF232" t="n" s="8">
         <v>518.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>565.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>555.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>579.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>5.1</v>
@@ -23748,10 +26056,20 @@
       <c r="AF233" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>125.0</v>
@@ -23846,10 +26164,20 @@
       <c r="AF234" t="n" s="8">
         <v>551.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>299.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>2335.0</v>
@@ -23944,10 +26272,20 @@
       <c r="AF235" t="n" s="8">
         <v>4863.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>5097.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>5355.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>5442.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>2460.0</v>
@@ -24042,10 +26380,20 @@
       <c r="AF236" t="n" s="8">
         <v>5414.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>5396.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>5531.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>5624.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>1.8</v>
@@ -24140,10 +26488,20 @@
       <c r="AF237" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>23.0</v>
@@ -24238,10 +26596,20 @@
       <c r="AF238" t="n" s="8">
         <v>38.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>1260.0</v>
@@ -24336,10 +26704,20 @@
       <c r="AF239" t="n" s="8">
         <v>1115.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>1088.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>1034.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>1064.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>1283.0</v>
@@ -24434,10 +26812,20 @@
       <c r="AF240" t="n" s="8">
         <v>1153.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>1133.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>1063.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>1098.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>3.6</v>
@@ -24532,10 +26920,20 @@
       <c r="AF241" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>295.0</v>
@@ -24630,10 +27028,20 @@
       <c r="AF242" t="n" s="8">
         <v>2021.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>923.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>486.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>503.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>7855.0</v>
@@ -24728,10 +27136,20 @@
       <c r="AF243" t="n" s="8">
         <v>19904.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>20288.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>21042.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>21633.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>8150.0</v>
@@ -24826,10 +27244,20 @@
       <c r="AF244" t="n" s="8">
         <v>21925.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>21211.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>21528.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>22136.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>4.5</v>
@@ -24924,10 +27352,20 @@
       <c r="AF245" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>337.0</v>
@@ -25022,10 +27460,20 @@
       <c r="AF246" t="n" s="8">
         <v>893.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>661.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>404.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>7171.0</v>
@@ -25120,10 +27568,20 @@
       <c r="AF247" t="n" s="8">
         <v>11919.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>12515.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>12954.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>13204.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>7508.0</v>
@@ -25218,10 +27676,20 @@
       <c r="AF248" t="n" s="8">
         <v>12812.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>13176.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>13358.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>13615.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>2.0</v>
@@ -25316,10 +27784,20 @@
       <c r="AF249" t="n" s="10">
         <v>2.9</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>44.0</v>
@@ -25414,10 +27892,20 @@
       <c r="AF250" t="n" s="8">
         <v>83.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>2176.0</v>
@@ -25512,10 +28000,20 @@
       <c r="AF251" t="n" s="8">
         <v>2758.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>2620.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>2663.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>2615.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>2220.0</v>
@@ -25610,10 +28108,20 @@
       <c r="AF252" t="n" s="8">
         <v>2841.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>2714.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>2728.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>2677.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>5.7</v>
@@ -25708,10 +28216,20 @@
       <c r="AF253" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>3811.0</v>
@@ -25806,10 +28324,20 @@
       <c r="AF254" t="n" s="8">
         <v>10706.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>9638.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>5512.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>5622.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>63055.0</v>
@@ -25904,10 +28432,20 @@
       <c r="AF255" t="n" s="8">
         <v>153885.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>156666.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>162674.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>166337.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>66866.0</v>
@@ -26002,10 +28540,20 @@
       <c r="AF256" t="n" s="8">
         <v>164591.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>166304.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>168186.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>171959.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>2.1</v>
@@ -26100,10 +28648,20 @@
       <c r="AF257" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>86.0</v>
@@ -26198,10 +28756,20 @@
       <c r="AF258" t="n" s="8">
         <v>145.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>3944.0</v>
@@ -26296,10 +28864,20 @@
       <c r="AF259" t="n" s="8">
         <v>5402.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>5279.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>5371.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>5256.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>4030.0</v>
@@ -26394,6 +28972,16 @@
       <c r="AF260" t="n" s="8">
         <v>5547.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>5440.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>5484.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>5364.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -26404,7 +28992,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:48:16 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:23:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
